--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/AB/20/seed3/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/AB/20/seed3/result_data_KNN.xlsx
@@ -488,7 +488,7 @@
         <v>-19.84</v>
       </c>
       <c r="B4" t="n">
-        <v>6.848000000000001</v>
+        <v>7.239</v>
       </c>
       <c r="C4" t="n">
         <v>-13.95</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-21.116</v>
+        <v>-21.672</v>
       </c>
       <c r="B8" t="n">
         <v>2.91</v>
@@ -569,7 +569,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-22.078</v>
+        <v>-21.794</v>
       </c>
       <c r="B10" t="n">
         <v>6.17</v>
@@ -586,7 +586,7 @@
         <v>-21.2</v>
       </c>
       <c r="B11" t="n">
-        <v>7.906000000000001</v>
+        <v>6.776999999999999</v>
       </c>
       <c r="C11" t="n">
         <v>-10.8</v>
@@ -597,10 +597,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.48</v>
+        <v>-21.53</v>
       </c>
       <c r="B12" t="n">
-        <v>4.566000000000001</v>
+        <v>5.397</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -642,7 +642,7 @@
         <v>-22.78</v>
       </c>
       <c r="B15" t="n">
-        <v>4.514</v>
+        <v>5.776</v>
       </c>
       <c r="C15" t="n">
         <v>-13.12</v>
@@ -670,7 +670,7 @@
         <v>-22.45</v>
       </c>
       <c r="B17" t="n">
-        <v>5.002000000000001</v>
+        <v>4.994000000000001</v>
       </c>
       <c r="C17" t="n">
         <v>-14.84</v>
@@ -681,7 +681,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-21.872</v>
+        <v>-21.885</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -779,7 +779,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.758</v>
+        <v>-21.75</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
@@ -796,7 +796,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>6.412000000000001</v>
+        <v>6.319000000000001</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -810,7 +810,7 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>5.298</v>
+        <v>5.994999999999999</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -824,7 +824,7 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>5.122</v>
+        <v>5.815</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -880,7 +880,7 @@
         <v>-20.86</v>
       </c>
       <c r="B32" t="n">
-        <v>7.459999999999999</v>
+        <v>6.859</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
@@ -947,10 +947,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-20.362</v>
+        <v>-21.081</v>
       </c>
       <c r="B37" t="n">
-        <v>8.564</v>
+        <v>7.888000000000001</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -1006,7 +1006,7 @@
         <v>-19.28</v>
       </c>
       <c r="B41" t="n">
-        <v>6.992</v>
+        <v>7.773000000000001</v>
       </c>
       <c r="C41" t="n">
         <v>-14.21</v>
@@ -1090,7 +1090,7 @@
         <v>-21.83</v>
       </c>
       <c r="B47" t="n">
-        <v>5.298</v>
+        <v>5.69</v>
       </c>
       <c r="C47" t="n">
         <v>-11.84</v>
@@ -1146,7 +1146,7 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>6.8</v>
+        <v>6.664</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-21.964</v>
+        <v>-21.843</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1342,7 +1342,7 @@
         <v>-22.48</v>
       </c>
       <c r="B65" t="n">
-        <v>7.124000000000001</v>
+        <v>6.282000000000001</v>
       </c>
       <c r="C65" t="n">
         <v>-11.86</v>
@@ -1381,7 +1381,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-21.42</v>
+        <v>-21.583</v>
       </c>
       <c r="B68" t="n">
         <v>4.88</v>
@@ -1454,7 +1454,7 @@
         <v>-20.59</v>
       </c>
       <c r="B73" t="n">
-        <v>6.808</v>
+        <v>6.528</v>
       </c>
       <c r="C73" t="n">
         <v>-15.02</v>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-21.706</v>
+        <v>-21.098</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1521,7 +1521,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-20.08</v>
+        <v>-20.739</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-21.838</v>
+        <v>-21.233</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1549,7 +1549,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-20.844</v>
+        <v>-20.887</v>
       </c>
       <c r="B80" t="n">
         <v>11.21</v>
@@ -1563,7 +1563,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-21.834</v>
+        <v>-21.63</v>
       </c>
       <c r="B81" t="n">
         <v>3.85</v>
@@ -1577,7 +1577,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-21.946</v>
+        <v>-21.886</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1605,10 +1605,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-20.438</v>
+        <v>-20.552</v>
       </c>
       <c r="B84" t="n">
-        <v>8.629999999999999</v>
+        <v>7.964999999999999</v>
       </c>
       <c r="C84" t="n">
         <v>-12.28</v>
@@ -1622,7 +1622,7 @@
         <v>-21.53</v>
       </c>
       <c r="B85" t="n">
-        <v>5.436</v>
+        <v>6.083</v>
       </c>
       <c r="C85" t="n">
         <v>-13.1</v>
@@ -1678,7 +1678,7 @@
         <v>-22.69</v>
       </c>
       <c r="B89" t="n">
-        <v>4.322000000000001</v>
+        <v>5.205000000000001</v>
       </c>
       <c r="C89" t="n">
         <v>-14.65</v>
@@ -1734,7 +1734,7 @@
         <v>-21.49</v>
       </c>
       <c r="B93" t="n">
-        <v>6.488000000000001</v>
+        <v>6.077000000000001</v>
       </c>
       <c r="C93" t="n">
         <v>-10.09</v>
@@ -1762,7 +1762,7 @@
         <v>-22.29</v>
       </c>
       <c r="B95" t="n">
-        <v>6.256</v>
+        <v>5.898999999999999</v>
       </c>
       <c r="C95" t="n">
         <v>-11.3</v>
@@ -1804,7 +1804,7 @@
         <v>-20.86</v>
       </c>
       <c r="B98" t="n">
-        <v>7.459999999999999</v>
+        <v>7.1</v>
       </c>
       <c r="C98" t="n">
         <v>-10.59</v>
@@ -1818,7 +1818,7 @@
         <v>-21.32</v>
       </c>
       <c r="B99" t="n">
-        <v>6.168</v>
+        <v>5.840000000000001</v>
       </c>
       <c r="C99" t="n">
         <v>-13.93</v>
@@ -1843,10 +1843,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-21.85</v>
+        <v>-22.156</v>
       </c>
       <c r="B101" t="n">
-        <v>5.456</v>
+        <v>5.328</v>
       </c>
       <c r="C101" t="n">
         <v>-15.77</v>
@@ -1857,10 +1857,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>-21.5</v>
+        <v>-21.291</v>
       </c>
       <c r="B102" t="n">
-        <v>6.536</v>
+        <v>6.483</v>
       </c>
       <c r="C102" t="n">
         <v>-12.7</v>
